--- a/tables/time/How often have you visited parks or squares in 2019 during the day?.xlsx
+++ b/tables/time/How often have you visited parks or squares in 2019 during the day?.xlsx
@@ -411,10 +411,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>22.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,10 +444,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
